--- a/biology/Zoologie/Heliconius_luciana/Heliconius_luciana.xlsx
+++ b/biology/Zoologie/Heliconius_luciana/Heliconius_luciana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius luciana est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Heliconiinae et du genre Heliconius.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Heliconius luciana a été décrite en 1960 par l'entomologiste français René Lichy (d) (1896-1981)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heliconius luciana a été décrite en 1960 par l'entomologiste français René Lichy (d) (1896-1981).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Heliconius luciana luciana
-Heliconius luciana watunna Lichy, 1960[1].</t>
+Heliconius luciana watunna Lichy, 1960.</t>
         </is>
       </c>
     </row>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius luciana est un grand papillon au corps fin et aux ailes antérieures allongées à bord interne concave qui présente une ressemblance (mimétisme Müllérien) avec Heliconius antiochus et certaines formes locales d' Heliconius burneyi et Heliconius hecale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius luciana est un grand papillon au corps fin et aux ailes antérieures allongées à bord interne concave qui présente une ressemblance (mimétisme Müllérien) avec Heliconius antiochus et certaines formes locales d' Heliconius burneyi et Heliconius hecale.
 Le dessus est de couleur noire avec aux ailes antérieures des bandes blanches veinées de noir une proche de l'apex et une allant du bord costal à l'angle interne.
 </t>
         </is>
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae (Granadilla)[2].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae (Granadilla).
 </t>
         </is>
       </c>
@@ -637,11 +660,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius luciana est présent au Venezuela et dans le Nord du Brésil[1],[2].
-Biotope
-Heliconius luciana réside en lisière de forêt jusqu'à 1 500 m[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius luciana est présent au Venezuela et dans le Nord du Brésil,.
 </t>
         </is>
       </c>
@@ -667,10 +690,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius luciana réside en lisière de forêt jusqu'à 1 500 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_luciana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_luciana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
